--- a/Proyecto Final Desarrollo ABAP con COPILOT.xlsx
+++ b/Proyecto Final Desarrollo ABAP con COPILOT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EdwardOrtiz\Desktop\Proyecto Copilot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D1099E-E299-4363-89EF-07FB3E672B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D4C7E7-0354-4EF7-9C5D-D5EA5E5DA873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{90EE437F-81CB-4A4E-AE2C-0A8773015A8E}"/>
   </bookViews>
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C1BD49-78DA-4960-B5DA-5250E24FCA41}">
   <dimension ref="B2:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -665,6 +665,9 @@
       <c r="C6">
         <v>5</v>
       </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
       <c r="E6" t="s">
         <v>32</v>
       </c>
@@ -676,6 +679,9 @@
       <c r="C7">
         <v>5</v>
       </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
       <c r="E7" t="s">
         <v>32</v>
       </c>
@@ -687,6 +693,9 @@
       <c r="C8">
         <v>4</v>
       </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
       <c r="E8" t="s">
         <v>32</v>
       </c>
@@ -698,6 +707,9 @@
       <c r="C9">
         <v>3</v>
       </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
       <c r="E9" t="s">
         <v>32</v>
       </c>
@@ -712,7 +724,7 @@
       </c>
       <c r="D10">
         <f>SUM(D6:D9)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -732,6 +744,9 @@
       <c r="C13">
         <v>6</v>
       </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
       <c r="E13" t="s">
         <v>32</v>
       </c>
@@ -743,6 +758,9 @@
       <c r="C14">
         <v>6</v>
       </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
       <c r="E14" t="s">
         <v>32</v>
       </c>
@@ -754,6 +772,9 @@
       <c r="C15">
         <v>6</v>
       </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
       <c r="E15" t="s">
         <v>32</v>
       </c>
@@ -765,6 +786,9 @@
       <c r="C16">
         <v>6</v>
       </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
       <c r="E16" t="s">
         <v>32</v>
       </c>
@@ -779,7 +803,7 @@
       </c>
       <c r="D17">
         <f>SUM(D13:D16)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="17.25" customHeight="1">
@@ -953,7 +977,7 @@
       </c>
       <c r="D35">
         <f>SUM(D10,D17,D23,D29,D34)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -966,7 +990,7 @@
       </c>
       <c r="D36" s="5">
         <f>D35/40</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -979,7 +1003,7 @@
       </c>
       <c r="D37" s="5">
         <f>D35/8</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto Final Desarrollo ABAP con COPILOT.xlsx
+++ b/Proyecto Final Desarrollo ABAP con COPILOT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EdwardOrtiz\Desktop\Proyecto Copilot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D4C7E7-0354-4EF7-9C5D-D5EA5E5DA873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5821704D-3121-4520-9BD0-400C14EF4576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{90EE437F-81CB-4A4E-AE2C-0A8773015A8E}"/>
   </bookViews>
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C1BD49-78DA-4960-B5DA-5250E24FCA41}">
   <dimension ref="B2:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -818,6 +818,9 @@
       <c r="C19">
         <v>4</v>
       </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
       <c r="E19" t="s">
         <v>32</v>
       </c>
@@ -829,6 +832,9 @@
       <c r="C20">
         <v>4</v>
       </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
       <c r="E20" t="s">
         <v>32</v>
       </c>
@@ -840,6 +846,9 @@
       <c r="C21">
         <v>4</v>
       </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
       <c r="E21" t="s">
         <v>32</v>
       </c>
@@ -851,6 +860,9 @@
       <c r="C22">
         <v>4</v>
       </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
       <c r="E22" t="s">
         <v>32</v>
       </c>
@@ -865,7 +877,7 @@
       </c>
       <c r="D23">
         <f>SUM(D19:D22)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="15.6">
@@ -977,7 +989,7 @@
       </c>
       <c r="D35">
         <f>SUM(D10,D17,D23,D29,D34)</f>
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -990,7 +1002,7 @@
       </c>
       <c r="D36" s="5">
         <f>D35/40</f>
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -1003,7 +1015,7 @@
       </c>
       <c r="D37" s="5">
         <f>D35/8</f>
-        <v>4</v>
+        <v>5.25</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto Final Desarrollo ABAP con COPILOT.xlsx
+++ b/Proyecto Final Desarrollo ABAP con COPILOT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EdwardOrtiz\Desktop\Proyecto Copilot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5821704D-3121-4520-9BD0-400C14EF4576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5135E7-33C0-4E69-97F7-AC47B8F1FE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{90EE437F-81CB-4A4E-AE2C-0A8773015A8E}"/>
   </bookViews>
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C1BD49-78DA-4960-B5DA-5250E24FCA41}">
   <dimension ref="B2:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -892,6 +892,9 @@
       <c r="C25">
         <v>4</v>
       </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
       <c r="E25" t="s">
         <v>32</v>
       </c>
@@ -903,6 +906,9 @@
       <c r="C26">
         <v>4</v>
       </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
       <c r="E26" t="s">
         <v>32</v>
       </c>
@@ -914,6 +920,9 @@
       <c r="C27">
         <v>4</v>
       </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
       <c r="E27" t="s">
         <v>32</v>
       </c>
@@ -925,6 +934,9 @@
       <c r="C28">
         <v>4</v>
       </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
       <c r="E28" t="s">
         <v>32</v>
       </c>
@@ -939,7 +951,7 @@
       </c>
       <c r="D29">
         <f>SUM(D25:D28)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="15.6">
@@ -954,6 +966,9 @@
       <c r="C32">
         <v>4</v>
       </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
       <c r="E32" t="s">
         <v>32</v>
       </c>
@@ -963,6 +978,9 @@
         <v>31</v>
       </c>
       <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
         <v>3</v>
       </c>
       <c r="E33" t="s">
@@ -976,7 +994,7 @@
       </c>
       <c r="D34">
         <f>SUM(D32:D33)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="2:5">
@@ -989,7 +1007,7 @@
       </c>
       <c r="D35">
         <f>SUM(D10,D17,D23,D29,D34)</f>
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -1002,7 +1020,7 @@
       </c>
       <c r="D36" s="5">
         <f>D35/40</f>
-        <v>1.05</v>
+        <v>1.4750000000000001</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -1015,7 +1033,7 @@
       </c>
       <c r="D37" s="5">
         <f>D35/8</f>
-        <v>5.25</v>
+        <v>7.375</v>
       </c>
     </row>
   </sheetData>
